--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Amazon-Review-Sentiment-Analysis (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20521\Downloads\Naive_Bayes_classification_feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FFD0A-8778-468A-98DE-97A0B646ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ED417A-7CEF-4D07-B9BA-A99442F06B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,27 +89,40 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,15 +152,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,15 +473,16 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="116.77734375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,184 +500,184 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
